--- a/biology/Botanique/Myagrum_perfoliatum/Myagrum_perfoliatum.xlsx
+++ b/biology/Botanique/Myagrum_perfoliatum/Myagrum_perfoliatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myagre perfolié
 Myagrum perfoliatum, en français Myagre perfolié, est une espèce de plantes à fleurs annuelle de la famille des Brassicaceae. C'est la seule espèce reconnue du genre Myagrum.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle de 20 à 80 cm de hauteur, dressée, souvent ramifiée au sommet. Les feuilles sont entières ou lobées, les caulinaires à oreillettes développées, entièrement glabres et glauques. L'inflorescence forme une panicule terminale en grappes allongées. Les fleurs ont des pétales jaunes de 3 à 5 mm de long. Les silicules sont renflées et ridées sous le sommet. La floraison a lieu de Mai à Juillet[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 20 à 80 cm de hauteur, dressée, souvent ramifiée au sommet. Les feuilles sont entières ou lobées, les caulinaires à oreillettes développées, entièrement glabres et glauques. L'inflorescence forme une panicule terminale en grappes allongées. Les fleurs ont des pétales jaunes de 3 à 5 mm de long. Les silicules sont renflées et ridées sous le sommet. La floraison a lieu de Mai à Juillet.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante aime la lumière, les milieux plutôt sec et les sols calcaires[4]. On la rencontre dans les champs et les moissons[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante aime la lumière, les milieux plutôt sec et les sols calcaires. On la rencontre dans les champs et les moissons.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a pour aire de répartition l'Europe[6]. Elle est présente à l'Est jusqu'en Iran. Elle a été introduite en Australie et au Texas[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a pour aire de répartition l'Europe. Elle est présente à l'Est jusqu'en Iran. Elle a été introduite en Australie et au Texas.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est inscrite sur la Liste rouge de la flore vasculaire de France métropolitaine avec le statut NA (Non Applicable). Elle est classée « en danger critique d'extinction » (CR) en Bourgogne et « en danger » (EN) en Auvergne, Limousin et Poitou-Charentes[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est inscrite sur la Liste rouge de la flore vasculaire de France métropolitaine avec le statut NA (Non Applicable). Elle est classée « en danger critique d'extinction » (CR) en Bourgogne et « en danger » (EN) en Auvergne, Limousin et Poitou-Charentes.
 </t>
         </is>
       </c>
